--- a/biology/Zoologie/Idiommata_scintillans/Idiommata_scintillans.xlsx
+++ b/biology/Zoologie/Idiommata_scintillans/Idiommata_scintillans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Idiommata scintillans est une espèce d'araignées mygalomorphes de la famille des Barychelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idiommata scintillans est une espèce d'araignées mygalomorphes de la famille des Barychelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie-Méridionale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie-Méridionale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle mesure 9,2 mm de long sur 8,9 mm et l'abdomen 8,7 mm de long sur 7,4 mm et la carapace de la femelle mesure 9,5 mm de long sur 8,5 mm et l'abdomen 12,6 mm de long sur 9,2 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle mesure 9,2 mm de long sur 8,9 mm et l'abdomen 8,7 mm de long sur 7,4 mm et la carapace de la femelle mesure 9,5 mm de long sur 8,5 mm et l'abdomen 12,6 mm de long sur 9,2 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rainbow &amp; Pulleine, 1918 : Australian trap-door spiders. Records of the Australian Museum, vol. 12, p. 81-169 (texte intégral).</t>
         </is>
